--- a/biology/Médecine/Fritz_Perls/Fritz_Perls.xlsx
+++ b/biology/Médecine/Fritz_Perls/Fritz_Perls.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fritz Perls, né le 8 juillet 1893 à Berlin[1] et mort le 14 mars 1970 à Chicago, est un psychiatre et psychothérapeute allemand. Il invente la notion de Gestalt-thérapie[1],[2], qu'il a élaborée à partir de 1942 en collaboration avec son épouse, Laura Posner Perls et avec Paul Goodman.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fritz Perls, né le 8 juillet 1893 à Berlin et mort le 14 mars 1970 à Chicago, est un psychiatre et psychothérapeute allemand. Il invente la notion de Gestalt-thérapie qu'il a élaborée à partir de 1942 en collaboration avec son épouse, Laura Posner Perls et avec Paul Goodman.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Psychiatre et psychothérapeute, il commence sa carrière en 1926 dans un institut où il traite des soldats qui ont des lésions cérébrales. Il est influencé par Hans-Jurgen Walter et le mouvement des gestaltistes. En 1933, il s'exile aux Pays-Bas. L'année suivante, il décide d'aller vivre en Afrique du Sud où il commence à élaborer sa Gestalt-thérapie. En 1946, il émigre aux États-Unis. Peu de temps après son arrivée, il fonde avec son épouse Laura l'Institute of Gestalt Therapy à New York. Jusqu'à sa mort, il continue d'approfondir sa théorie.
 </t>
@@ -542,10 +556,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Moi, la faim et l'agressivité (Ego, Hunger, and Aggression: A Revision of Freud's Theory and Method), 1942
-Gestalt thérapie : vers une théorie du self : nouveauté, excitation et croissance[3] (Gestalt Therapy: Excitement and Growth in the Human Personality), 1951
+Gestalt thérapie : vers une théorie du self : nouveauté, excitation et croissance (Gestalt Therapy: Excitement and Growth in the Human Personality), 1951
 Ma Gestalt-thérapie: une-poubelle-vue-du-dehors-et-du-dedans (In and Out of the Garbage Pail), 1969
 Rêves et existence en gestalt thérapie (Gestalt Therapy Verbatim), 1969
 Manuel de Gestalt-thérapie : la Gestalt : un nouveau regard sur l'homme (The Gestalt Approach and Eye Witness to Therapy), 1973</t>
